--- a/exampleTabulka.xlsx
+++ b/exampleTabulka.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Diplomova Praca\Text\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>abc</t>
   </si>
@@ -65,42 +60,9 @@
     <t>Z</t>
   </si>
   <si>
-    <t>A2A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A2D1</t>
-  </si>
-  <si>
-    <t>A1D1A1</t>
-  </si>
-  <si>
-    <t>D1A1D1</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
-    <t>A1D2</t>
-  </si>
-  <si>
-    <t>A1D1</t>
-  </si>
-  <si>
-    <t>D2A1</t>
-  </si>
-  <si>
-    <t>D1A1</t>
-  </si>
-  <si>
-    <t>D1A2</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
@@ -135,13 +97,46 @@
   </si>
   <si>
     <t>ba</t>
+  </si>
+  <si>
+    <t>L2L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L2D1</t>
+  </si>
+  <si>
+    <t>L1D1L1</t>
+  </si>
+  <si>
+    <t>D1L1D1</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L1D1</t>
+  </si>
+  <si>
+    <t>L1D2</t>
+  </si>
+  <si>
+    <t>D2L1</t>
+  </si>
+  <si>
+    <t>D1L1</t>
+  </si>
+  <si>
+    <t>D1L2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,13 +144,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -167,14 +205,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -233,7 +279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,7 +314,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -445,222 +491,336 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>14</v>
       </c>
       <c r="B2" s="1">
         <v>123</v>
       </c>
-      <c r="D2">
-        <v>12</v>
+      <c r="D2" t="s">
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>42.1</v>
+        <v>0.27960000000000002</v>
       </c>
       <c r="F2">
-        <v>42.1</v>
+        <v>25.58</v>
       </c>
       <c r="G2">
-        <v>42.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2">
+        <v>0.80349999999999999</v>
+      </c>
+      <c r="L2">
+        <v>80.349999999999994</v>
+      </c>
+      <c r="M2">
+        <v>80.349999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>113</v>
       </c>
-      <c r="D3">
-        <v>11</v>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>36.799999999999997</v>
+        <v>0.2457</v>
       </c>
       <c r="F3">
-        <v>36.799999999999997</v>
+        <v>22.48</v>
       </c>
       <c r="G3">
-        <v>36.799999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.04</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>0.14280000000000001</v>
+      </c>
+      <c r="L3">
+        <v>14.28</v>
+      </c>
+      <c r="M3">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>31</v>
+      <c r="D4" t="s">
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>5.26</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F4">
-        <v>5.26</v>
+        <v>13.17</v>
       </c>
       <c r="G4">
-        <v>5.26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14.4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4">
+        <v>5.35</v>
+      </c>
+      <c r="L4">
+        <v>5.35</v>
+      </c>
+      <c r="M4">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>33</v>
+      <c r="D5" t="s">
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>2.63</v>
+        <v>9.3200000000000005E-2</v>
       </c>
       <c r="F5">
-        <v>2.63</v>
+        <v>8.52</v>
       </c>
       <c r="G5">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>21</v>
+      <c r="D6" t="s">
+        <v>29</v>
       </c>
       <c r="E6">
-        <v>2.63</v>
+        <v>5.9299999999999999E-2</v>
       </c>
       <c r="F6">
-        <v>2.63</v>
+        <v>5.42</v>
       </c>
       <c r="G6">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7">
-        <v>22</v>
+      <c r="D7" t="s">
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>2.63</v>
+        <v>5.08</v>
       </c>
       <c r="F7">
-        <v>2.63</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="G7">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2E-3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>0.43280000000000002</v>
+      </c>
+      <c r="L7">
+        <v>43.28</v>
+      </c>
+      <c r="M7">
+        <v>43.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>23</v>
+      <c r="D8" t="s">
+        <v>31</v>
       </c>
       <c r="E8">
-        <v>2.63</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="F8">
-        <v>2.63</v>
+        <v>3.87</v>
       </c>
       <c r="G8">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>0.26860000000000001</v>
+      </c>
+      <c r="L8">
+        <v>26.86</v>
+      </c>
+      <c r="M8">
+        <v>26.86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9">
-        <v>32</v>
+      <c r="D9" t="s">
+        <v>13</v>
       </c>
       <c r="E9">
-        <v>2.63</v>
+        <v>2.54</v>
       </c>
       <c r="F9">
-        <v>2.63</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="G9">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.54</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9">
+        <v>20.89</v>
+      </c>
+      <c r="L9">
+        <v>20.89</v>
+      </c>
+      <c r="M9">
+        <v>20.89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10">
-        <v>13</v>
+      <c r="D10" t="s">
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>2.63</v>
+        <v>1.69</v>
       </c>
       <c r="F10">
-        <v>2.63</v>
+        <v>1.55</v>
       </c>
       <c r="G10">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.69</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10">
+        <v>1.49</v>
+      </c>
+      <c r="L10">
+        <v>1.49</v>
+      </c>
+      <c r="M10">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>0.84</v>
+      </c>
+      <c r="F11">
+        <v>5.42</v>
+      </c>
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11">
+        <v>1.49</v>
+      </c>
+      <c r="L11">
+        <v>1.49</v>
+      </c>
+      <c r="M11">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>2</v>
       </c>
@@ -668,10 +828,31 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="E12">
+        <v>0.84</v>
+      </c>
+      <c r="F12">
+        <v>0.77</v>
+      </c>
+      <c r="G12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12">
+        <v>1.49</v>
+      </c>
+      <c r="L12">
+        <v>1.49</v>
+      </c>
+      <c r="M12">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>2</v>
       </c>
@@ -679,19 +860,31 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E13">
-        <v>27.96</v>
+        <v>0.84</v>
       </c>
       <c r="F13">
-        <v>25.58</v>
+        <v>0.77</v>
       </c>
       <c r="G13">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13">
+        <v>1.49</v>
+      </c>
+      <c r="L13">
+        <v>1.49</v>
+      </c>
+      <c r="M13">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>1</v>
       </c>
@@ -699,19 +892,31 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E14">
-        <v>24.57</v>
+        <v>0.84</v>
       </c>
       <c r="F14">
-        <v>22.48</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="G14">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14">
+        <v>1.49</v>
+      </c>
+      <c r="L14">
+        <v>1.49</v>
+      </c>
+      <c r="M14">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>1</v>
       </c>
@@ -719,398 +924,278 @@
         <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E15">
-        <v>14.4</v>
+        <v>0.84</v>
       </c>
       <c r="F15">
-        <v>13.17</v>
+        <v>0.77</v>
       </c>
       <c r="G15">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>9.32</v>
-      </c>
-      <c r="F16">
-        <v>8.52</v>
-      </c>
-      <c r="G16">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17">
-        <v>5.93</v>
-      </c>
-      <c r="F17">
-        <v>5.42</v>
-      </c>
-      <c r="G17">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15">
+        <v>1.49</v>
+      </c>
+      <c r="L15">
+        <v>1.49</v>
+      </c>
+      <c r="M15">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="J17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>0.7288</v>
+      </c>
+      <c r="L18">
+        <v>72.88</v>
+      </c>
+      <c r="M18">
+        <v>72.88</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <f>E2*K7*K2</f>
+        <v>9.7232242080000017E-2</v>
+      </c>
+      <c r="G19" s="7">
+        <f>E2*K8*K2</f>
+        <v>6.0343299960000006E-2</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="L19">
+        <v>25.42</v>
+      </c>
+      <c r="M19">
+        <v>25.42</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>123</v>
+      </c>
+      <c r="G20">
+        <f>E2*K7*K3</f>
+        <v>1.7280353664000003E-2</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1.69</v>
+      </c>
+      <c r="L20">
+        <v>1.69</v>
+      </c>
+      <c r="M20">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" s="6">
+        <v>113</v>
+      </c>
+      <c r="G21" s="4">
+        <f>E3*K23*K18</f>
+        <v>7.5386853359999992E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6">
+        <f>E3*K24*K18</f>
+        <v>6.5896346879999998E-2</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13">
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E18">
-        <v>5.08</v>
-      </c>
-      <c r="F18">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="G18">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="F19">
-        <v>3.87</v>
-      </c>
-      <c r="G19">
-        <v>4.2300000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20">
-        <v>2.54</v>
-      </c>
-      <c r="F20">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G20">
-        <v>2.54</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+      <c r="G23">
+        <f>E3*K23*K19</f>
+        <v>2.6294371739999996E-2</v>
+      </c>
+      <c r="J23">
+        <v>12</v>
+      </c>
+      <c r="K23">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="L23">
+        <v>42.1</v>
+      </c>
+      <c r="M23">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="G24" s="5">
+        <f>E4*K7</f>
+        <v>6.2323199999999995E-2</v>
+      </c>
+      <c r="J24">
         <v>11</v>
       </c>
-      <c r="E21">
-        <v>1.69</v>
-      </c>
-      <c r="F21">
-        <v>1.55</v>
-      </c>
-      <c r="G21">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+      <c r="K24">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="L24">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="M24">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="G25">
+        <f>E5*K7*K18</f>
+        <v>2.9397576448000003E-2</v>
+      </c>
+      <c r="J25">
+        <v>31</v>
+      </c>
+      <c r="K25">
+        <v>5.26</v>
+      </c>
+      <c r="L25">
+        <v>5.26</v>
+      </c>
+      <c r="M25">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="G26">
+        <f>E6*K2*K18*K2</f>
+        <v>2.7901966922539996E-2</v>
+      </c>
+      <c r="J26">
+        <v>33</v>
+      </c>
+      <c r="K26">
+        <v>2.63</v>
+      </c>
+      <c r="L26">
+        <v>2.63</v>
+      </c>
+      <c r="M26">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13">
+      <c r="J27">
         <v>21</v>
       </c>
-      <c r="E22">
-        <v>0.84</v>
-      </c>
-      <c r="F22">
-        <v>5.42</v>
-      </c>
-      <c r="G22">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23">
-        <v>0.84</v>
-      </c>
-      <c r="F23">
-        <v>0.77</v>
-      </c>
-      <c r="G23">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+      <c r="K27">
+        <v>2.63</v>
+      </c>
+      <c r="L27">
+        <v>2.63</v>
+      </c>
+      <c r="M27">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="J28">
         <v>22</v>
       </c>
-      <c r="E24">
-        <v>0.84</v>
-      </c>
-      <c r="F24">
-        <v>0.77</v>
-      </c>
-      <c r="G24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
+      <c r="K28">
+        <v>2.63</v>
+      </c>
+      <c r="L28">
+        <v>2.63</v>
+      </c>
+      <c r="M28">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="J29">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>0.84</v>
-      </c>
-      <c r="F25">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="G25">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>0.84</v>
-      </c>
-      <c r="F26">
-        <v>0.77</v>
-      </c>
-      <c r="G26">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29">
-        <v>80.349999999999994</v>
-      </c>
-      <c r="F29">
-        <v>80.349999999999994</v>
-      </c>
-      <c r="G29">
-        <v>80.349999999999994</v>
-      </c>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30">
-        <v>14.28</v>
-      </c>
-      <c r="F30">
-        <v>14.28</v>
-      </c>
-      <c r="G30">
-        <v>14.28</v>
-      </c>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31">
-        <v>5.35</v>
-      </c>
-      <c r="F31">
-        <v>5.35</v>
-      </c>
-      <c r="G31">
-        <v>5.35</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34">
-        <v>43.28</v>
-      </c>
-      <c r="F34">
-        <v>43.28</v>
-      </c>
-      <c r="G34">
-        <v>43.28</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35">
-        <v>26.86</v>
-      </c>
-      <c r="F35">
-        <v>26.86</v>
-      </c>
-      <c r="G35">
-        <v>26.86</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36">
-        <v>20.89</v>
-      </c>
-      <c r="F36">
-        <v>20.89</v>
-      </c>
-      <c r="G36">
-        <v>20.89</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37">
-        <v>1.49</v>
-      </c>
-      <c r="F37">
-        <v>1.49</v>
-      </c>
-      <c r="G37">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
+      <c r="K29">
+        <v>2.63</v>
+      </c>
+      <c r="L29">
+        <v>2.63</v>
+      </c>
+      <c r="M29">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13">
+      <c r="J30">
         <v>32</v>
       </c>
-      <c r="E38">
-        <v>1.49</v>
-      </c>
-      <c r="F38">
-        <v>1.49</v>
-      </c>
-      <c r="G38">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39">
-        <v>1.49</v>
-      </c>
-      <c r="F39">
-        <v>1.49</v>
-      </c>
-      <c r="G39">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40">
-        <v>1.49</v>
-      </c>
-      <c r="F40">
-        <v>1.49</v>
-      </c>
-      <c r="G40">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41">
-        <v>1.49</v>
-      </c>
-      <c r="F41">
-        <v>1.49</v>
-      </c>
-      <c r="G41">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42">
-        <v>1.49</v>
-      </c>
-      <c r="F42">
-        <v>1.49</v>
-      </c>
-      <c r="G42">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D45">
-        <v>3</v>
-      </c>
-      <c r="E45">
-        <v>72.88</v>
-      </c>
-      <c r="F45">
-        <v>72.88</v>
-      </c>
-      <c r="G45">
-        <v>72.88</v>
-      </c>
-    </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>25.42</v>
-      </c>
-      <c r="F46">
-        <v>25.42</v>
-      </c>
-      <c r="G46">
-        <v>25.42</v>
-      </c>
-    </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>1.69</v>
-      </c>
-      <c r="F47">
-        <v>1.69</v>
-      </c>
-      <c r="G47">
-        <v>1.69</v>
+      <c r="K30">
+        <v>2.63</v>
+      </c>
+      <c r="L30">
+        <v>2.63</v>
+      </c>
+      <c r="M30">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13">
+      <c r="J31">
+        <v>13</v>
+      </c>
+      <c r="K31">
+        <v>2.63</v>
+      </c>
+      <c r="L31">
+        <v>2.63</v>
+      </c>
+      <c r="M31">
+        <v>2.63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>